--- a/ExcelReadWrite/Assets/Editor/ExcelData/con_excel_AchievementDto.xlsx
+++ b/ExcelReadWrite/Assets/Editor/ExcelData/con_excel_AchievementDto.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\GitHubProjects\-Unity-ExcelData-Serialize-Deserialize\ExcelReadWrite\Assets\Editor\ExcelData\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13200"/>
   </bookViews>
@@ -16,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="32">
   <si>
     <t>傻逼</t>
   </si>
@@ -96,6 +101,56 @@
   </si>
   <si>
     <t>1,2,3,4,5,6,7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>nt</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>tring</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>List&lt;int&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -103,7 +158,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -114,6 +169,14 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -140,26 +203,60 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -201,7 +298,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -236,7 +333,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -445,10 +542,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F127"/>
+  <dimension ref="A1:F128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -464,78 +561,78 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" t="s">
-        <v>22</v>
+        <v>26</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
         <v>8</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
         <v>9</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C4" t="s">
         <v>10</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D4" t="s">
         <v>11</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E4" t="s">
         <v>12</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F4" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A4">
-        <v>0</v>
-      </c>
-      <c r="B4">
-        <v>50</v>
-      </c>
-      <c r="C4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4">
-        <v>123</v>
-      </c>
-      <c r="E4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B5">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D5">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E5" t="s">
         <v>14</v>
@@ -546,36 +643,36 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B6">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D6">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E6" t="s">
         <v>14</v>
       </c>
       <c r="F6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B7">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D7">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E7" t="s">
         <v>14</v>
@@ -586,16 +683,16 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B8">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D8">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E8" t="s">
         <v>14</v>
@@ -606,16 +703,16 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B9">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="C9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D9">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E9" t="s">
         <v>14</v>
@@ -626,16 +723,16 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B10">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="C10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D10">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E10" t="s">
         <v>14</v>
@@ -646,16 +743,16 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B11">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="C11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D11">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E11" t="s">
         <v>14</v>
@@ -666,16 +763,16 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B12">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="C12" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="D12">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E12" t="s">
         <v>14</v>
@@ -686,16 +783,16 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A13">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B13">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="C13" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D13">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E13" t="s">
         <v>14</v>
@@ -706,16 +803,16 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A14">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B14">
-        <v>550</v>
+        <v>500</v>
       </c>
       <c r="C14" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D14">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E14" t="s">
         <v>14</v>
@@ -726,16 +823,16 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A15">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B15">
-        <v>600</v>
+        <v>550</v>
       </c>
       <c r="C15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D15">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E15" t="s">
         <v>14</v>
@@ -746,16 +843,16 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A16">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B16">
-        <v>650</v>
+        <v>600</v>
       </c>
       <c r="C16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D16">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E16" t="s">
         <v>14</v>
@@ -766,16 +863,16 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A17">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B17">
-        <v>700</v>
+        <v>650</v>
       </c>
       <c r="C17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D17">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E17" t="s">
         <v>14</v>
@@ -786,16 +883,16 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A18">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B18">
-        <v>750</v>
+        <v>700</v>
       </c>
       <c r="C18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D18">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E18" t="s">
         <v>14</v>
@@ -806,16 +903,16 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A19">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B19">
-        <v>800</v>
+        <v>750</v>
       </c>
       <c r="C19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D19">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E19" t="s">
         <v>14</v>
@@ -826,16 +923,16 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A20">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B20">
-        <v>850</v>
+        <v>800</v>
       </c>
       <c r="C20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D20">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E20" t="s">
         <v>14</v>
@@ -846,16 +943,16 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A21">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B21">
-        <v>900</v>
+        <v>850</v>
       </c>
       <c r="C21" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="D21">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E21" t="s">
         <v>14</v>
@@ -866,16 +963,16 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A22">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B22">
-        <v>950</v>
+        <v>900</v>
       </c>
       <c r="C22" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D22">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E22" t="s">
         <v>14</v>
@@ -886,16 +983,16 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A23">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B23">
-        <v>1000</v>
+        <v>950</v>
       </c>
       <c r="C23" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D23">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E23" t="s">
         <v>14</v>
@@ -906,16 +1003,16 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A24">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B24">
-        <v>1050</v>
+        <v>1000</v>
       </c>
       <c r="C24" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D24">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E24" t="s">
         <v>14</v>
@@ -926,16 +1023,16 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A25">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B25">
-        <v>1100</v>
+        <v>1050</v>
       </c>
       <c r="C25" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D25">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E25" t="s">
         <v>14</v>
@@ -946,16 +1043,16 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A26">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B26">
-        <v>1150</v>
+        <v>1100</v>
       </c>
       <c r="C26" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D26">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E26" t="s">
         <v>14</v>
@@ -966,16 +1063,16 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A27">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B27">
-        <v>1200</v>
+        <v>1150</v>
       </c>
       <c r="C27" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D27">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E27" t="s">
         <v>14</v>
@@ -986,16 +1083,16 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A28">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B28">
-        <v>1250</v>
+        <v>1200</v>
       </c>
       <c r="C28" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D28">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E28" t="s">
         <v>14</v>
@@ -1006,16 +1103,16 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A29">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B29">
-        <v>1300</v>
+        <v>1250</v>
       </c>
       <c r="C29" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D29">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E29" t="s">
         <v>14</v>
@@ -1026,16 +1123,16 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A30">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B30">
-        <v>1350</v>
+        <v>1300</v>
       </c>
       <c r="C30" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="D30">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E30" t="s">
         <v>14</v>
@@ -1046,16 +1143,16 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A31">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B31">
-        <v>1400</v>
+        <v>1350</v>
       </c>
       <c r="C31" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D31">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E31" t="s">
         <v>14</v>
@@ -1066,16 +1163,16 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A32">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B32">
-        <v>1450</v>
+        <v>1400</v>
       </c>
       <c r="C32" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D32">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E32" t="s">
         <v>14</v>
@@ -1086,16 +1183,16 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A33">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B33">
-        <v>1500</v>
+        <v>1450</v>
       </c>
       <c r="C33" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D33">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E33" t="s">
         <v>14</v>
@@ -1106,16 +1203,16 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A34">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B34">
-        <v>1550</v>
+        <v>1500</v>
       </c>
       <c r="C34" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D34">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E34" t="s">
         <v>14</v>
@@ -1126,16 +1223,16 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A35">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B35">
-        <v>1600</v>
+        <v>1550</v>
       </c>
       <c r="C35" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D35">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E35" t="s">
         <v>14</v>
@@ -1146,16 +1243,16 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A36">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B36">
-        <v>1650</v>
+        <v>1600</v>
       </c>
       <c r="C36" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D36">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E36" t="s">
         <v>14</v>
@@ -1166,16 +1263,16 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A37">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B37">
-        <v>1700</v>
+        <v>1650</v>
       </c>
       <c r="C37" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D37">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E37" t="s">
         <v>14</v>
@@ -1186,16 +1283,16 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A38">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B38">
-        <v>1750</v>
+        <v>1700</v>
       </c>
       <c r="C38" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D38">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E38" t="s">
         <v>14</v>
@@ -1206,16 +1303,16 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A39">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B39">
-        <v>1800</v>
+        <v>1750</v>
       </c>
       <c r="C39" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="D39">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E39" t="s">
         <v>14</v>
@@ -1226,16 +1323,16 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A40">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B40">
-        <v>1850</v>
+        <v>1800</v>
       </c>
       <c r="C40" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D40">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E40" t="s">
         <v>14</v>
@@ -1246,16 +1343,16 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A41">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B41">
-        <v>1900</v>
+        <v>1850</v>
       </c>
       <c r="C41" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D41">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E41" t="s">
         <v>14</v>
@@ -1266,16 +1363,16 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A42">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B42">
-        <v>1950</v>
+        <v>1900</v>
       </c>
       <c r="C42" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D42">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E42" t="s">
         <v>14</v>
@@ -1286,16 +1383,16 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A43">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B43">
-        <v>2000</v>
+        <v>1950</v>
       </c>
       <c r="C43" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D43">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E43" t="s">
         <v>14</v>
@@ -1306,16 +1403,16 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A44">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B44">
-        <v>2050</v>
+        <v>2000</v>
       </c>
       <c r="C44" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D44">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E44" t="s">
         <v>14</v>
@@ -1326,16 +1423,16 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A45">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B45">
-        <v>2100</v>
+        <v>2050</v>
       </c>
       <c r="C45" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D45">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E45" t="s">
         <v>14</v>
@@ -1346,16 +1443,16 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A46">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B46">
-        <v>2150</v>
+        <v>2100</v>
       </c>
       <c r="C46" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D46">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E46" t="s">
         <v>14</v>
@@ -1366,16 +1463,16 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A47">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B47">
-        <v>2200</v>
+        <v>2150</v>
       </c>
       <c r="C47" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D47">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E47" t="s">
         <v>14</v>
@@ -1386,16 +1483,16 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A48">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B48">
-        <v>2250</v>
+        <v>2200</v>
       </c>
       <c r="C48" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="D48">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E48" t="s">
         <v>14</v>
@@ -1406,16 +1503,16 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A49">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B49">
-        <v>2300</v>
+        <v>2250</v>
       </c>
       <c r="C49" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D49">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E49" t="s">
         <v>14</v>
@@ -1426,16 +1523,16 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A50">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B50">
-        <v>2350</v>
+        <v>2300</v>
       </c>
       <c r="C50" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D50">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E50" t="s">
         <v>14</v>
@@ -1446,16 +1543,16 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A51">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B51">
-        <v>2400</v>
+        <v>2350</v>
       </c>
       <c r="C51" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D51">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E51" t="s">
         <v>14</v>
@@ -1466,16 +1563,16 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A52">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B52">
-        <v>2450</v>
+        <v>2400</v>
       </c>
       <c r="C52" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D52">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E52" t="s">
         <v>14</v>
@@ -1486,16 +1583,16 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A53">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B53">
-        <v>2500</v>
+        <v>2450</v>
       </c>
       <c r="C53" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D53">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E53" t="s">
         <v>14</v>
@@ -1506,16 +1603,16 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A54">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B54">
-        <v>2550</v>
+        <v>2500</v>
       </c>
       <c r="C54" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D54">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E54" t="s">
         <v>14</v>
@@ -1526,16 +1623,16 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A55">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B55">
-        <v>2600</v>
+        <v>2550</v>
       </c>
       <c r="C55" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D55">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E55" t="s">
         <v>14</v>
@@ -1546,16 +1643,16 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A56">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B56">
-        <v>2650</v>
+        <v>2600</v>
       </c>
       <c r="C56" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D56">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E56" t="s">
         <v>14</v>
@@ -1566,16 +1663,16 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A57">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B57">
-        <v>2700</v>
+        <v>2650</v>
       </c>
       <c r="C57" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="D57">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E57" t="s">
         <v>14</v>
@@ -1586,16 +1683,16 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A58">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B58">
-        <v>2750</v>
+        <v>2700</v>
       </c>
       <c r="C58" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D58">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E58" t="s">
         <v>14</v>
@@ -1606,16 +1703,16 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A59">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B59">
-        <v>2800</v>
+        <v>2750</v>
       </c>
       <c r="C59" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D59">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E59" t="s">
         <v>14</v>
@@ -1626,16 +1723,16 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A60">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B60">
-        <v>2850</v>
+        <v>2800</v>
       </c>
       <c r="C60" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D60">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E60" t="s">
         <v>14</v>
@@ -1646,16 +1743,16 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A61">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B61">
-        <v>2900</v>
+        <v>2850</v>
       </c>
       <c r="C61" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D61">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E61" t="s">
         <v>14</v>
@@ -1666,16 +1763,16 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A62">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B62">
-        <v>2950</v>
+        <v>2900</v>
       </c>
       <c r="C62" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D62">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E62" t="s">
         <v>14</v>
@@ -1686,16 +1783,16 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A63">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B63">
-        <v>3000</v>
+        <v>2950</v>
       </c>
       <c r="C63" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D63">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E63" t="s">
         <v>14</v>
@@ -1706,16 +1803,16 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A64">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B64">
-        <v>3050</v>
+        <v>3000</v>
       </c>
       <c r="C64" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D64">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E64" t="s">
         <v>14</v>
@@ -1726,16 +1823,16 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A65">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B65">
-        <v>3100</v>
+        <v>3050</v>
       </c>
       <c r="C65" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D65">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E65" t="s">
         <v>14</v>
@@ -1746,16 +1843,16 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A66">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B66">
-        <v>3150</v>
+        <v>3100</v>
       </c>
       <c r="C66" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="D66">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E66" t="s">
         <v>14</v>
@@ -1766,16 +1863,16 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A67">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B67">
-        <v>3200</v>
+        <v>3150</v>
       </c>
       <c r="C67" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D67">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E67" t="s">
         <v>14</v>
@@ -1786,16 +1883,16 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A68">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B68">
-        <v>3250</v>
+        <v>3200</v>
       </c>
       <c r="C68" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D68">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E68" t="s">
         <v>14</v>
@@ -1806,16 +1903,16 @@
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A69">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B69">
-        <v>3300</v>
+        <v>3250</v>
       </c>
       <c r="C69" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D69">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E69" t="s">
         <v>14</v>
@@ -1826,16 +1923,16 @@
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A70">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B70">
-        <v>3350</v>
+        <v>3300</v>
       </c>
       <c r="C70" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D70">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E70" t="s">
         <v>14</v>
@@ -1846,16 +1943,16 @@
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A71">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B71">
-        <v>3400</v>
+        <v>3350</v>
       </c>
       <c r="C71" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D71">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E71" t="s">
         <v>14</v>
@@ -1866,16 +1963,16 @@
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A72">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B72">
-        <v>3450</v>
+        <v>3400</v>
       </c>
       <c r="C72" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D72">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E72" t="s">
         <v>14</v>
@@ -1886,16 +1983,16 @@
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A73">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B73">
-        <v>3500</v>
+        <v>3450</v>
       </c>
       <c r="C73" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D73">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E73" t="s">
         <v>14</v>
@@ -1906,16 +2003,16 @@
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A74">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B74">
-        <v>3550</v>
+        <v>3500</v>
       </c>
       <c r="C74" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D74">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E74" t="s">
         <v>14</v>
@@ -1926,16 +2023,16 @@
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A75">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B75">
-        <v>3600</v>
+        <v>3550</v>
       </c>
       <c r="C75" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="D75">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E75" t="s">
         <v>14</v>
@@ -1946,16 +2043,16 @@
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A76">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B76">
-        <v>3650</v>
+        <v>3600</v>
       </c>
       <c r="C76" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D76">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E76" t="s">
         <v>14</v>
@@ -1966,16 +2063,16 @@
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A77">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B77">
-        <v>3700</v>
+        <v>3650</v>
       </c>
       <c r="C77" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D77">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E77" t="s">
         <v>14</v>
@@ -1986,16 +2083,16 @@
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A78">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B78">
-        <v>3750</v>
+        <v>3700</v>
       </c>
       <c r="C78" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D78">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E78" t="s">
         <v>14</v>
@@ -2006,16 +2103,16 @@
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A79">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B79">
-        <v>3800</v>
+        <v>3750</v>
       </c>
       <c r="C79" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D79">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E79" t="s">
         <v>14</v>
@@ -2026,16 +2123,16 @@
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A80">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B80">
-        <v>3850</v>
+        <v>3800</v>
       </c>
       <c r="C80" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D80">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E80" t="s">
         <v>14</v>
@@ -2046,16 +2143,16 @@
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A81">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B81">
-        <v>3900</v>
+        <v>3850</v>
       </c>
       <c r="C81" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D81">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E81" t="s">
         <v>14</v>
@@ -2066,16 +2163,16 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A82">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B82">
-        <v>3950</v>
+        <v>3900</v>
       </c>
       <c r="C82" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D82">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E82" t="s">
         <v>14</v>
@@ -2086,16 +2183,16 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A83">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B83">
-        <v>4000</v>
+        <v>3950</v>
       </c>
       <c r="C83" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D83">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E83" t="s">
         <v>14</v>
@@ -2106,16 +2203,16 @@
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A84">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B84">
-        <v>4050</v>
+        <v>4000</v>
       </c>
       <c r="C84" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="D84">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E84" t="s">
         <v>14</v>
@@ -2126,16 +2223,16 @@
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A85">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B85">
-        <v>4100</v>
+        <v>4050</v>
       </c>
       <c r="C85" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D85">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E85" t="s">
         <v>14</v>
@@ -2146,16 +2243,16 @@
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A86">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B86">
-        <v>4150</v>
+        <v>4100</v>
       </c>
       <c r="C86" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D86">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E86" t="s">
         <v>14</v>
@@ -2166,33 +2263,36 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A87">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B87">
-        <v>4200</v>
+        <v>4150</v>
       </c>
       <c r="C87" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D87">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E87" t="s">
         <v>14</v>
+      </c>
+      <c r="F87" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A88">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B88">
-        <v>4250</v>
+        <v>4200</v>
       </c>
       <c r="C88" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D88">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E88" t="s">
         <v>14</v>
@@ -2200,16 +2300,16 @@
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A89">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B89">
-        <v>4300</v>
+        <v>4250</v>
       </c>
       <c r="C89" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D89">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E89" t="s">
         <v>14</v>
@@ -2217,16 +2317,16 @@
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A90">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B90">
-        <v>4350</v>
+        <v>4300</v>
       </c>
       <c r="C90" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D90">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E90" t="s">
         <v>14</v>
@@ -2234,16 +2334,16 @@
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A91">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B91">
-        <v>4400</v>
+        <v>4350</v>
       </c>
       <c r="C91" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D91">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E91" t="s">
         <v>14</v>
@@ -2251,16 +2351,16 @@
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A92">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B92">
-        <v>4450</v>
+        <v>4400</v>
       </c>
       <c r="C92" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D92">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E92" t="s">
         <v>14</v>
@@ -2268,16 +2368,16 @@
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A93">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B93">
-        <v>4500</v>
+        <v>4450</v>
       </c>
       <c r="C93" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="D93">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E93" t="s">
         <v>14</v>
@@ -2285,16 +2385,16 @@
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A94">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B94">
-        <v>4550</v>
+        <v>4500</v>
       </c>
       <c r="C94" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D94">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E94" t="s">
         <v>14</v>
@@ -2302,16 +2402,16 @@
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A95">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B95">
-        <v>4600</v>
+        <v>4550</v>
       </c>
       <c r="C95" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D95">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E95" t="s">
         <v>14</v>
@@ -2319,16 +2419,16 @@
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A96">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B96">
-        <v>4650</v>
+        <v>4600</v>
       </c>
       <c r="C96" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D96">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E96" t="s">
         <v>14</v>
@@ -2336,16 +2436,16 @@
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A97">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B97">
-        <v>4700</v>
+        <v>4650</v>
       </c>
       <c r="C97" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D97">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E97" t="s">
         <v>14</v>
@@ -2353,16 +2453,16 @@
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A98">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B98">
-        <v>4750</v>
+        <v>4700</v>
       </c>
       <c r="C98" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D98">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E98" t="s">
         <v>14</v>
@@ -2370,16 +2470,16 @@
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A99">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B99">
-        <v>4800</v>
+        <v>4750</v>
       </c>
       <c r="C99" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D99">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E99" t="s">
         <v>14</v>
@@ -2387,16 +2487,16 @@
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A100">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B100">
-        <v>4850</v>
+        <v>4800</v>
       </c>
       <c r="C100" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D100">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E100" t="s">
         <v>14</v>
@@ -2404,16 +2504,16 @@
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A101">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B101">
-        <v>4900</v>
+        <v>4850</v>
       </c>
       <c r="C101" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D101">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E101" t="s">
         <v>14</v>
@@ -2421,16 +2521,16 @@
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A102">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B102">
-        <v>4950</v>
+        <v>4900</v>
       </c>
       <c r="C102" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="D102">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E102" t="s">
         <v>14</v>
@@ -2438,16 +2538,16 @@
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A103">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B103">
-        <v>5000</v>
+        <v>4950</v>
       </c>
       <c r="C103" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D103">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E103" t="s">
         <v>14</v>
@@ -2455,16 +2555,16 @@
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A104">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B104">
-        <v>5050</v>
+        <v>5000</v>
       </c>
       <c r="C104" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D104">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E104" t="s">
         <v>14</v>
@@ -2472,16 +2572,16 @@
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A105">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B105">
-        <v>5100</v>
+        <v>5050</v>
       </c>
       <c r="C105" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D105">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E105" t="s">
         <v>14</v>
@@ -2489,16 +2589,16 @@
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A106">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B106">
-        <v>5150</v>
+        <v>5100</v>
       </c>
       <c r="C106" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D106">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E106" t="s">
         <v>14</v>
@@ -2506,16 +2606,16 @@
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A107">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B107">
-        <v>5200</v>
+        <v>5150</v>
       </c>
       <c r="C107" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D107">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E107" t="s">
         <v>14</v>
@@ -2523,16 +2623,16 @@
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A108">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B108">
-        <v>5250</v>
+        <v>5200</v>
       </c>
       <c r="C108" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D108">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E108" t="s">
         <v>14</v>
@@ -2540,16 +2640,16 @@
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A109">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B109">
-        <v>5300</v>
+        <v>5250</v>
       </c>
       <c r="C109" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D109">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E109" t="s">
         <v>14</v>
@@ -2557,16 +2657,16 @@
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A110">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B110">
-        <v>5350</v>
+        <v>5300</v>
       </c>
       <c r="C110" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D110">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E110" t="s">
         <v>14</v>
@@ -2574,16 +2674,16 @@
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A111">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B111">
-        <v>5400</v>
+        <v>5350</v>
       </c>
       <c r="C111" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="D111">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E111" t="s">
         <v>14</v>
@@ -2591,16 +2691,16 @@
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A112">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B112">
-        <v>5450</v>
+        <v>5400</v>
       </c>
       <c r="C112" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D112">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E112" t="s">
         <v>14</v>
@@ -2608,16 +2708,16 @@
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A113">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B113">
-        <v>5500</v>
+        <v>5450</v>
       </c>
       <c r="C113" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D113">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E113" t="s">
         <v>14</v>
@@ -2625,16 +2725,16 @@
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A114">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B114">
-        <v>5550</v>
+        <v>5500</v>
       </c>
       <c r="C114" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D114">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E114" t="s">
         <v>14</v>
@@ -2642,16 +2742,16 @@
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A115">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B115">
-        <v>5600</v>
+        <v>5550</v>
       </c>
       <c r="C115" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D115">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E115" t="s">
         <v>14</v>
@@ -2659,16 +2759,16 @@
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A116">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B116">
-        <v>5650</v>
+        <v>5600</v>
       </c>
       <c r="C116" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D116">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E116" t="s">
         <v>14</v>
@@ -2676,16 +2776,16 @@
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A117">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B117">
-        <v>5700</v>
+        <v>5650</v>
       </c>
       <c r="C117" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D117">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E117" t="s">
         <v>14</v>
@@ -2693,16 +2793,16 @@
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A118">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B118">
-        <v>5750</v>
+        <v>5700</v>
       </c>
       <c r="C118" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D118">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E118" t="s">
         <v>14</v>
@@ -2710,16 +2810,16 @@
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A119">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B119">
-        <v>5800</v>
+        <v>5750</v>
       </c>
       <c r="C119" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D119">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E119" t="s">
         <v>14</v>
@@ -2727,16 +2827,16 @@
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A120">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B120">
-        <v>5850</v>
+        <v>5800</v>
       </c>
       <c r="C120" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="D120">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E120" t="s">
         <v>14</v>
@@ -2744,16 +2844,16 @@
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A121">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B121">
-        <v>5900</v>
+        <v>5850</v>
       </c>
       <c r="C121" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D121">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E121" t="s">
         <v>14</v>
@@ -2761,16 +2861,16 @@
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A122">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B122">
-        <v>5950</v>
+        <v>5900</v>
       </c>
       <c r="C122" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D122">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E122" t="s">
         <v>14</v>
@@ -2778,16 +2878,16 @@
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A123">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B123">
-        <v>6000</v>
+        <v>5950</v>
       </c>
       <c r="C123" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D123">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E123" t="s">
         <v>14</v>
@@ -2795,16 +2895,16 @@
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A124">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B124">
-        <v>6050</v>
+        <v>6000</v>
       </c>
       <c r="C124" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D124">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E124" t="s">
         <v>14</v>
@@ -2812,16 +2912,16 @@
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A125">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B125">
-        <v>6100</v>
+        <v>6050</v>
       </c>
       <c r="C125" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D125">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E125" t="s">
         <v>14</v>
@@ -2829,16 +2929,16 @@
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A126">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B126">
-        <v>6150</v>
+        <v>6100</v>
       </c>
       <c r="C126" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D126">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E126" t="s">
         <v>14</v>
@@ -2846,25 +2946,42 @@
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A127">
+        <v>122</v>
+      </c>
+      <c r="B127">
+        <v>6150</v>
+      </c>
+      <c r="C127" t="s">
+        <v>19</v>
+      </c>
+      <c r="D127">
+        <v>245</v>
+      </c>
+      <c r="E127" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A128">
         <v>123</v>
       </c>
-      <c r="B127">
+      <c r="B128">
         <v>6200</v>
       </c>
-      <c r="C127" t="s">
+      <c r="C128" t="s">
         <v>20</v>
       </c>
-      <c r="D127">
+      <c r="D128">
         <v>246</v>
       </c>
-      <c r="E127" t="s">
+      <c r="E128" t="s">
         <v>14</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
